--- a/Exhibits/Create Exhibit Product Setup/Main.rvl.xlsx
+++ b/Exhibits/Create Exhibit Product Setup/Main.rvl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="183">
   <si>
     <t>Flow</t>
   </si>
@@ -477,6 +477,93 @@
   </si>
   <si>
     <t>New Exhibit Product Setup. Add New Exhibit Product Setup</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Exhibits\ExhibitData.xlsx</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Registration Setup from the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Registration Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Registration Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Registration Setup.</t>
+  </si>
+  <si>
+    <t>*******TUXr Meeting must already be created before running this test.</t>
+  </si>
+  <si>
+    <t>***Test creates the Exhibit Product Setup from the ExhibitData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Exhibit Product Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Exhibit Product is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Exhibit Product Setup.</t>
+  </si>
+  <si>
+    <t>*******TUXr Exhibit must already be created before running this test.</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Open TUXr Meeting.</t>
+  </si>
+  <si>
+    <t>Open TUXr Exhibit.</t>
+  </si>
+  <si>
+    <t>Exhibit Product not found. Create Exhibit Product setup for testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Setup: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhibit Product: </t>
+  </si>
+  <si>
+    <t>Copy Meeting</t>
+  </si>
+  <si>
+    <t>Verify Registration Setup is created.</t>
+  </si>
+  <si>
+    <t>ux_CheckHeaderValue</t>
+  </si>
+  <si>
+    <t>ExpectedValue</t>
+  </si>
+  <si>
+    <t>Exhi</t>
+  </si>
+  <si>
+    <t>Verify Exhibit Product is created.</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>UX_grid</t>
+  </si>
+  <si>
+    <t>of Else</t>
   </si>
 </sst>
 </file>
@@ -497,7 +584,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2692">
+  <borders count="2724">
     <border>
       <left/>
       <right/>
@@ -3196,11 +3283,43 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2692">
+  <cellXfs count="2724">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -5893,6 +6012,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2689" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2690" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2691" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2692" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2693" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2694" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2695" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2696" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2697" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2698" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2699" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2700" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2701" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2702" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2703" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2704" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2705" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2706" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2707" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2708" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2709" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2710" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2711" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2712" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2713" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2714" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2715" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2716" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2717" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2718" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2719" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2720" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2721" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2722" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2723" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5902,7 +6053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H105"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -5972,432 +6123,459 @@
       <c r="A4" s="2689"/>
     </row>
     <row r="5">
-      <c r="A5" s="2688" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="2692"/>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2693"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2688" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2687"/>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2686"/>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="2685"/>
+      <c r="A8" s="2687"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2684"/>
+      <c r="A9" s="2686"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2683"/>
+      <c r="A10" s="2685"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2684"/>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2682" t="s">
+    <row r="12">
+      <c r="A12" s="2683"/>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2682" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2681"/>
-      <c r="B12" t="s">
+    <row r="14">
+      <c r="A14" s="2694"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2680" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2680" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2679"/>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2679"/>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2678"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2677" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="17">
-      <c r="A17" s="2676"/>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
+      <c r="A17" s="2700"/>
     </row>
     <row r="18">
-      <c r="A18" s="2675"/>
+      <c r="A18" s="2699"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2674"/>
+      <c r="A19" s="2698"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2673"/>
+      <c r="A20" s="2697"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2672"/>
+      <c r="A21" s="2696"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2671"/>
+      <c r="A22" s="2695"/>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2670"/>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>79</v>
-      </c>
+      <c r="A23" s="2678"/>
     </row>
     <row r="24">
-      <c r="A24" s="2669"/>
+      <c r="A24" s="2677" t="s">
+        <v>36</v>
+      </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2668"/>
+      <c r="A25" s="2703"/>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2667"/>
+      <c r="A26" s="2676"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2666" t="s">
-        <v>36</v>
-      </c>
+      <c r="A27" s="2675"/>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2665" t="s">
-        <v>45</v>
-      </c>
+      <c r="A28" s="2674"/>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2664" t="s">
-        <v>36</v>
-      </c>
+      <c r="A29" s="2673"/>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2663"/>
+      <c r="A30" s="2672"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2662"/>
+      <c r="A31" s="2671"/>
       <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2661"/>
+      <c r="A32" s="2670"/>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2660"/>
+      <c r="A33" s="2669"/>
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -6405,108 +6583,95 @@
         <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2659"/>
+      <c r="A34" s="2668"/>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2667"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2666" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2665" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="G34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2658"/>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" s="2664" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2663"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2662"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2657"/>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2656" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2655"/>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2654"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2653" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>152</v>
+      <c r="G40" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2652"/>
+      <c r="A41" s="2705"/>
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -6523,32 +6688,26 @@
         <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2651"/>
+      <c r="A42" s="2704"/>
       <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2650"/>
+      <c r="A43" s="2661"/>
       <c r="B43" t="s">
         <v>3</v>
       </c>
@@ -6556,399 +6715,835 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2649"/>
+      <c r="A44" s="2660"/>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
         <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2648"/>
+      <c r="A45" s="2659"/>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2647"/>
+      <c r="A46" s="2658"/>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2646"/>
+      <c r="A47" s="2657"/>
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2645"/>
+      <c r="A48" s="2656" t="s">
+        <v>47</v>
+      </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2644"/>
+      <c r="A49" s="2655"/>
       <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2643"/>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" t="s">
-        <v>126</v>
-      </c>
+      <c r="A50" s="2654"/>
     </row>
     <row r="51">
-      <c r="A51" s="2642"/>
+      <c r="A51" s="2653" t="s">
+        <v>36</v>
+      </c>
       <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2641"/>
+      <c r="A52" s="2652"/>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2707"/>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2706"/>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2651"/>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>65</v>
       </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2640"/>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2639"/>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2638"/>
-      <c r="B55" t="s">
-        <v>11</v>
+      <c r="D55" t="s">
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2637"/>
+      <c r="A56" s="2650"/>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2636"/>
+      <c r="A57" s="2649"/>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
         <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2635"/>
+      <c r="A58" s="2648"/>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2647"/>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" t="s">
         <v>80</v>
       </c>
-      <c r="G58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2634" t="s">
-        <v>32</v>
+      <c r="G59" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2633"/>
+      <c r="A60" s="2646"/>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2632"/>
+      <c r="A61" s="2645"/>
       <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2644"/>
+      <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2643"/>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2642"/>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2641"/>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2640"/>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2639"/>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2638"/>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2637"/>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2636"/>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2635"/>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2719"/>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" t="s">
         <v>139</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E72" t="s">
         <v>67</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F72" t="s">
         <v>13</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G72" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2631" t="s">
+    <row r="73">
+      <c r="A73" s="2718"/>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2717"/>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2720"/>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2715"/>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2714"/>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2713"/>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2712"/>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2711"/>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2710"/>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2709"/>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2708"/>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2722"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2634" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2630"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2629"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2628"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="236"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="237"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="238"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="239"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="240"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="241"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="242"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="243"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="244"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="245"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="246"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="247"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="248"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="249"/>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2721"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2632"/>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2631" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2630"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2629"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2628"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="236"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="237"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="238"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="239"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="240"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="241"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="242"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="243"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="244"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="245"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="246"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="247"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="248"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="249"/>
     </row>
   </sheetData>
 </worksheet>
